--- a/Homeworks/HW3/hw3.xlsx
+++ b/Homeworks/HW3/hw3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royde\Documents\Unief\1e Master CW (Lissabon)\1ste Semester\Planning\Repo\Homeworks\HW3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EBFC64-D702-47F4-BC56-B8F42944D259}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077CD372-F471-4415-B77C-FED80510D844}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" xr2:uid="{1E2874A1-B9DE-471B-AC42-687FA6881D0F}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t>Pc</t>
   </si>
   <si>
-    <t>0a = 0b = 0c</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>Oa = Ob = Oc</t>
   </si>
 </sst>
 </file>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCAE5D1-00B4-4B26-98F0-F9E4F29EA056}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,13 +1090,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
         <v>7</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
         <v>16</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>17</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>18</v>
-      </c>
-      <c r="E51" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
